--- a/zyouhou.xlsx
+++ b/zyouhou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,138 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>歴史問題単語リスト.xlsx</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レア度</t>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平安京に移した人物は</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイアンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壬申の乱何年</t>
+    <rPh sb="0" eb="2">
+      <t>ジンシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遣唐使の廃止は何年</t>
+    <rPh sb="0" eb="3">
+      <t>ケントウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白村江の戦は何年</t>
+    <rPh sb="0" eb="3">
+      <t>ハクソンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タタカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桓武天皇</t>
+    <rPh sb="0" eb="4">
+      <t>カンムテンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +172,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +246,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +281,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +463,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zyouhou.xlsx
+++ b/zyouhou.xlsx
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/zyouhou.xlsx
+++ b/zyouhou.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>歴史問題単語リスト.xlsx</t>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -110,6 +107,13 @@
   </si>
   <si>
     <t>SSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -117,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +135,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -172,15 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,11 +458,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -476,62 +469,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>663</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>672</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/zyouhou.xlsx
+++ b/zyouhou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,94 +25,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>平安京に移した人物は</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイアンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壬申の乱何年</t>
+    <rPh sb="0" eb="2">
+      <t>ジンシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遣唐使の廃止は何年</t>
+    <rPh sb="0" eb="3">
+      <t>ケントウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白村江の戦は何年</t>
+    <rPh sb="0" eb="3">
+      <t>ハクソンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タタカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桓武天皇</t>
+    <rPh sb="0" eb="4">
+      <t>カンムテンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>レア度</t>
     <rPh sb="2" eb="3">
       <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平安京に移した人物は</t>
-    <rPh sb="0" eb="3">
-      <t>ヘイアンキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジンブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壬申の乱何年</t>
-    <rPh sb="0" eb="2">
-      <t>ジンシン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナンネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遣唐使の廃止は何年</t>
-    <rPh sb="0" eb="3">
-      <t>ケントウシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハイシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナンネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白村江の戦は何年</t>
-    <rPh sb="0" eb="3">
-      <t>ハクソンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タタカイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナンネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桓武天皇</t>
-    <rPh sb="0" eb="4">
-      <t>カンムテンノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解答</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問題</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,13 +138,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFA31515"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -172,10 +172,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -470,18 +472,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -492,10 +494,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>672</v>
@@ -503,10 +505,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>894</v>
@@ -514,13 +516,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/zyouhou.xlsx
+++ b/zyouhou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -103,16 +103,117 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>意味</t>
-    <rPh sb="0" eb="2">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レア度</t>
     <rPh sb="2" eb="3">
       <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初の総理大臣は誰</t>
+    <rPh sb="0" eb="1">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ソウリダイジン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤博文</t>
+    <rPh sb="0" eb="4">
+      <t>イトウヒロフミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>院政は誰が行い始めたか</t>
+    <rPh sb="0" eb="2">
+      <t>インセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白河天皇</t>
+    <rPh sb="0" eb="4">
+      <t>シラカワテンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元寇後御家人のために幕府が土地をただで取り戻せる法令を何というか</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンコウゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゴケニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バクフ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウレイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳政令</t>
+    <rPh sb="0" eb="3">
+      <t>トクセイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日米和親条約</t>
+    <rPh sb="0" eb="6">
+      <t>ニチベイワシンジョウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1854年にアメリカと結んだ条約は何か</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウヤク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -458,16 +559,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="69.375" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -475,10 +577,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -523,6 +625,50 @@
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
